--- a/Hardware-software-used-in-MCU1.xlsx
+++ b/Hardware-software-used-in-MCU1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nieki\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247DD55C-53AC-4D64-91FB-2F903DD42455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>No</t>
   </si>
@@ -94,12 +100,6 @@
   </si>
   <si>
     <t>HARDWARE</t>
-  </si>
-  <si>
-    <t>KEIL MDK v5</t>
-  </si>
-  <si>
-    <t>OpenSTM32 Sysemworkbench</t>
   </si>
   <si>
     <t>saleae logic analyzer software</t>
@@ -123,15 +123,6 @@
     <t>Reference link</t>
   </si>
   <si>
-    <t>Student free and code limited version .  Full installation 
-procedure is covered in this course</t>
-  </si>
-  <si>
-    <t>This IDE can be used by non WINDOWS users to develop and 
-program the board. Windows users can also use this software. 
-Full installation procedure is covered in this course</t>
-  </si>
-  <si>
     <t>STM32F407 DISCOVERY board
 OR
 STM32F446RE NUCLEO board</t>
@@ -139,13 +130,19 @@
   <si>
     <t>This is the main development board for which drivers are developed.
 Use either one. These boards are explained in this course</t>
+  </si>
+  <si>
+    <t>STM32CUBEIDE</t>
+  </si>
+  <si>
+    <t>Eclipse based IDE . Provided by ST . Multi OS support (windows/linux/mac)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +245,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -294,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,9 +331,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,6 +383,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,39 +576,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="78.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="78.109375" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="23.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -576,7 +617,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,23 +631,23 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="56.25">
+    <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>3</v>
@@ -614,7 +655,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="18.75">
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -623,7 +664,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="75">
+    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -642,7 +683,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="18.75">
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -661,7 +702,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="18.75">
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -680,7 +721,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="18.75">
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -697,7 +738,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="56.25">
+    <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -718,7 +759,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="18.75">
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -737,7 +778,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="18.75">
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -756,12 +797,12 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="23.25">
+    <row r="20" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75">
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,65 +814,57 @@
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="37.5">
+    <row r="22" spans="1:7" ht="36" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="56.25">
+    <row r="23" spans="1:7" ht="72" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="75">
-      <c r="A24" s="1">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="18.75">
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -840,7 +873,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="18.75">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -849,7 +882,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="18.75">
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -858,7 +891,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="18.75">
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -867,7 +900,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="18.75">
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -876,24 +909,15 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="18.75">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1"/>
-    <hyperlink ref="E9" r:id="rId2"/>
-    <hyperlink ref="E10" r:id="rId3"/>
-    <hyperlink ref="E11" r:id="rId4"/>
-    <hyperlink ref="E13" r:id="rId5"/>
-    <hyperlink ref="E14" r:id="rId6"/>
-    <hyperlink ref="E15" r:id="rId7"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
@@ -901,24 +925,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
